--- a/client/game/waren.xlsx
+++ b/client/game/waren.xlsx
@@ -165,6 +165,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -186,12 +187,14 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,15 +336,15 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,10 +1843,10 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -2526,7 +2529,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/client/game/waren.xlsx
+++ b/client/game/waren.xlsx
@@ -336,10 +336,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.76"/>
@@ -1718,7 +1718,7 @@
       <c r="J21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="2" t="n">
         <f aca="false">C21-J21</f>
         <v>1</v>
       </c>
@@ -1846,7 +1846,7 @@
       <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">

--- a/client/game/waren.xlsx
+++ b/client/game/waren.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
   <si>
     <t xml:space="preserve">Je Betrieb</t>
   </si>
@@ -47,7 +47,10 @@
     <t xml:space="preserve">Kompl.</t>
   </si>
   <si>
-    <t xml:space="preserve">für People</t>
+    <t xml:space="preserve">old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neu</t>
   </si>
   <si>
     <t xml:space="preserve">Lohnsatz</t>
@@ -239,20 +242,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,1505 +336,1497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="0" t="n">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="n">
         <f aca="false">B1*19</f>
         <v>380</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
         <f aca="false">C3-J3</f>
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <f aca="false">ROUND(K3/$G$1,5)</f>
         <v>0.01316</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <f aca="false">M3*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="n">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="n">
         <f aca="false">N3+O3</f>
         <v>160</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <f aca="false">ROUND(P3/C3,0)</f>
         <v>32</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <f aca="false">ROUND(Q3*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <f aca="false">ROUND(Q3*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="4" t="n">
         <f aca="false">I3/$G$1</f>
-        <v>0.0131578947368421</v>
-      </c>
-      <c r="W3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
         <f aca="false">3800*V3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="1" t="n">
-        <f aca="false">5-D12</f>
-        <v>4.5</v>
-      </c>
-      <c r="J4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="J4" s="1" t="n">
+        <f aca="false">D12</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <f aca="false">C4-J4</f>
         <v>4.5</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <f aca="false">ROUND(K4/$G$1,5)</f>
         <v>0.01184</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="4" t="n">
         <f aca="false">M4*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="n">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
         <f aca="false">N4+O4</f>
         <v>160</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <f aca="false">ROUND(P4/C4,0)</f>
         <v>32</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <f aca="false">ROUND(Q4*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <f aca="false">ROUND(Q4*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U4" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="V4" s="3" t="n">
+      <c r="U4" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <f aca="false">I4/$G$1</f>
-        <v>0.0118421052631579</v>
-      </c>
-      <c r="W4" s="3" t="n">
+        <v>0.00131578947368421</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <f aca="false">3800*V4</f>
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>7</v>
       </c>
       <c r="I5" s="1" t="n">
-        <f aca="false">C5-D9-D11-F21</f>
-        <v>2</v>
-      </c>
-      <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="J5" s="1" t="n">
+        <f aca="false">D9+D11</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="n">
         <f aca="false">C5-J5</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <f aca="false">ROUND(K5/$G$1,5)</f>
-        <v>0.01053</v>
-      </c>
-      <c r="M5" s="3" t="n">
+        <v>0.00789</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="4" t="n">
         <f aca="false">M5*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="n">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="n">
         <f aca="false">N5+O5</f>
         <v>160</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="4" t="n">
         <f aca="false">ROUND(P5/C5,0)</f>
         <v>23</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="4" t="n">
         <f aca="false">ROUND(Q5*4/3,0)</f>
         <v>31</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="4" t="n">
         <f aca="false">ROUND(Q5*5/3,0)</f>
         <v>38</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="4" t="n">
         <f aca="false">I5/$G$1</f>
-        <v>0.00526315789473684</v>
-      </c>
-      <c r="W5" s="3" t="n">
+        <v>0.00789473684210526</v>
+      </c>
+      <c r="W5" s="4" t="n">
         <f aca="false">3800*V5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="1" t="n">
-        <f aca="false">C6-F12-D20</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">D20+F12</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <f aca="false">C6-J6</f>
         <v>4</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <f aca="false">C6-J6</f>
-        <v>3</v>
-      </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <f aca="false">ROUND(K6/$G$1,5)</f>
-        <v>0.00789</v>
-      </c>
-      <c r="M6" s="3" t="n">
+        <v>0.01053</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="4" t="n">
         <f aca="false">M6*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="n">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="n">
         <f aca="false">N6+O6</f>
         <v>160</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="4" t="n">
         <f aca="false">ROUND(P6/C6,0)</f>
         <v>32</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="4" t="n">
         <f aca="false">ROUND(Q6*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="4" t="n">
         <f aca="false">ROUND(Q6*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="4" t="n">
         <f aca="false">I6/$G$1</f>
-        <v>0.0105263157894737</v>
-      </c>
-      <c r="W6" s="3" t="n">
+        <v>0.00526315789473684</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <f aca="false">3800*V6</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="1" t="n">
-        <f aca="false">C7-D13-D19</f>
         <v>2.5</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <f aca="false">D13+D19</f>
         <v>2.5</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <f aca="false">C7-J7</f>
         <v>2.5</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="4" t="n">
         <f aca="false">ROUND(K7/$G$1,5)</f>
         <v>0.00658</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="4" t="n">
         <f aca="false">M7*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="n">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="n">
         <f aca="false">N7+O7</f>
         <v>160</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="4" t="n">
         <f aca="false">ROUND(P7/C7,0)</f>
         <v>32</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="4" t="n">
         <f aca="false">ROUND(Q7*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="4" t="n">
         <f aca="false">ROUND(Q7*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="4" t="n">
         <f aca="false">I7/$G$1</f>
         <v>0.00657894736842105</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="4" t="n">
         <f aca="false">3800*V7</f>
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="n">
-        <f aca="false">C8-D10-F19-F20</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="J8" s="1" t="n">
+        <f aca="false">D10</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <f aca="false">C8-J8</f>
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="n">
         <f aca="false">ROUND(K8/$G$1,5)</f>
-        <v>0.00789</v>
-      </c>
-      <c r="M8" s="3" t="n">
+        <v>0.00526</v>
+      </c>
+      <c r="M8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="4" t="n">
         <f aca="false">M8*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="n">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="n">
         <f aca="false">N8+O8</f>
         <v>160</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="4" t="n">
         <f aca="false">ROUND(P8/C8,0)</f>
         <v>32</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="4" t="n">
         <f aca="false">ROUND(Q8*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="4" t="n">
         <f aca="false">ROUND(Q8*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V8" s="3" t="n">
+      <c r="U8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V8" s="4" t="n">
         <f aca="false">I8/$G$1</f>
-        <v>0.00263157894736842</v>
-      </c>
-      <c r="W8" s="3" t="n">
+        <v>0.00526315789473684</v>
+      </c>
+      <c r="W8" s="4" t="n">
         <f aca="false">3800*V8</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <f aca="false">C9-(F21/2)</f>
-        <v>5.5</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">F21</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
         <f aca="false">C9-J9</f>
         <v>5</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <f aca="false">ROUND(K9/$G$1,5)</f>
         <v>0.01316</v>
       </c>
-      <c r="M9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N9" s="3" t="n">
+      <c r="M9" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4" t="n">
         <f aca="false">M9*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <f aca="false">ROUND(D9*S5,0)</f>
         <v>114</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <f aca="false">N9+O9</f>
         <v>294</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <f aca="false">ROUND(P9/C9,0)</f>
         <v>49</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <f aca="false">ROUND(Q9*4/3,0)</f>
         <v>65</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <f aca="false">ROUND(Q9*5/3,0)</f>
         <v>82</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <f aca="false">I9/$G$1</f>
-        <v>0.0144736842105263</v>
-      </c>
-      <c r="W9" s="3" t="n">
+        <v>0.00263157894736842</v>
+      </c>
+      <c r="W9" s="4" t="n">
         <f aca="false">3800*V9</f>
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
-        <f aca="false">C10-F19/2-F20/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">F19+F20</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <f aca="false">C10-J10</f>
         <v>5</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <f aca="false">ROUND(K10/$G$1,5)</f>
         <v>0.01316</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3" t="n">
+      <c r="M10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <f aca="false">M10*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="4" t="n">
         <f aca="false">D10*S8</f>
         <v>159</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <f aca="false">N10+O10</f>
         <v>339</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <f aca="false">ROUND(P10/C10,0)</f>
         <v>57</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="4" t="n">
         <f aca="false">ROUND(Q10*4/3,0)</f>
         <v>76</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="4" t="n">
         <f aca="false">ROUND(Q10*5/3,0)</f>
         <v>95</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="4" t="n">
         <f aca="false">I10/$G$1</f>
-        <v>0.0144736842105263</v>
-      </c>
-      <c r="W10" s="3" t="n">
+        <v>0.00263157894736842</v>
+      </c>
+      <c r="W10" s="4" t="n">
         <f aca="false">3800*V10</f>
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <f aca="false">C11</f>
-        <v>2</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <f aca="false">C11-J11</f>
         <v>2</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <f aca="false">ROUND(K11/$G$1,5)</f>
         <v>0.00526</v>
       </c>
-      <c r="M11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N11" s="3" t="n">
+      <c r="M11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" s="4" t="n">
         <f aca="false">M11*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <f aca="false">ROUND(D11*S5,0)</f>
         <v>38</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <f aca="false">N11+O11</f>
         <v>218</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <f aca="false">ROUND(P11/C11,0)</f>
         <v>109</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <f aca="false">ROUND(Q11*4/3,0)</f>
         <v>145</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <f aca="false">ROUND(Q11*5/3,0)</f>
         <v>182</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <f aca="false">I11/$G$1</f>
-        <v>0.00526315789473684</v>
-      </c>
-      <c r="W11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4" t="n">
         <f aca="false">3800*V11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="I12" s="1" t="n">
-        <f aca="false">C12</f>
-        <v>2</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <f aca="false">C12-J12</f>
         <v>2</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <f aca="false">ROUND(K12/$G$1,5)</f>
         <v>0.00526</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N12" s="3" t="n">
+      <c r="M12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4" t="n">
         <f aca="false">M12*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="4" t="n">
         <f aca="false">ROUND(D12*S4+F12*S6,0)</f>
         <v>53</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="4" t="n">
         <f aca="false">N12+O12</f>
         <v>233</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="4" t="n">
         <f aca="false">ROUND(P12/C12,0)</f>
         <v>117</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="4" t="n">
         <f aca="false">ROUND(Q12*4/3,0)</f>
         <v>156</v>
       </c>
-      <c r="S12" s="3" t="n">
+      <c r="S12" s="4" t="n">
         <f aca="false">ROUND(Q12*5/3,0)</f>
         <v>195</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V12" s="3" t="n">
+      <c r="V12" s="4" t="n">
         <f aca="false">I12/$G$1</f>
-        <v>0.00526315789473684</v>
-      </c>
-      <c r="W12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="n">
         <f aca="false">3800*V12</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="0" t="n">
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <f aca="false">C13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
         <f aca="false">C13-J13</f>
         <v>1</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="4" t="n">
         <f aca="false">ROUND(K13/$G$1,5)</f>
         <v>0.00263</v>
       </c>
-      <c r="M13" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N13" s="3" t="n">
+      <c r="M13" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" s="4" t="n">
         <f aca="false">M13*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="4" t="n">
         <f aca="false">ROUND(D13*S7,0)</f>
         <v>106</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="4" t="n">
         <f aca="false">N13+O13</f>
         <v>286</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="4" t="n">
         <f aca="false">ROUND(P13/C13,0)</f>
         <v>286</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="4" t="n">
         <f aca="false">ROUND(Q13*4/3,0)</f>
         <v>381</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="S13" s="4" t="n">
         <f aca="false">ROUND(Q13*5/3,0)</f>
         <v>477</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V13" s="3" t="n">
+      <c r="U13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V13" s="4" t="n">
         <f aca="false">I13/$G$1</f>
-        <v>0.00263157894736842</v>
-      </c>
-      <c r="W13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="n">
         <f aca="false">3800*V13</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="I14" s="1" t="n">
-        <f aca="false">C14-D21</f>
-        <v>2</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">D21</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <f aca="false">C14-J14</f>
         <v>2</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="4" t="n">
         <f aca="false">ROUND(K14/$G$1,5)</f>
         <v>0.00526</v>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N14" s="3" t="n">
+      <c r="M14" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" s="4" t="n">
         <f aca="false">M14*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="n">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="n">
         <f aca="false">N14+O14</f>
         <v>180</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="4" t="n">
         <f aca="false">ROUND(P14/C14,0)</f>
         <v>60</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="4" t="n">
         <f aca="false">ROUND(Q14*4/3,0)</f>
         <v>80</v>
       </c>
-      <c r="S14" s="3" t="n">
+      <c r="S14" s="4" t="n">
         <f aca="false">ROUND(Q14*5/3,0)</f>
         <v>100</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="4" t="n">
         <f aca="false">I14/$G$1</f>
-        <v>0.00526315789473684</v>
-      </c>
-      <c r="W14" s="3" t="n">
+        <v>0.00263157894736842</v>
+      </c>
+      <c r="W14" s="4" t="n">
         <f aca="false">3800*V14</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
-        <f aca="false">C15-D16</f>
-        <v>3</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">D16</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="n">
         <f aca="false">C15-J15</f>
         <v>3</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <f aca="false">ROUND(K15/$G$1,5)</f>
         <v>0.00789</v>
       </c>
-      <c r="M15" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N15" s="3" t="n">
+      <c r="M15" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" s="4" t="n">
         <f aca="false">M15*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="n">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="n">
         <f aca="false">N15+O15</f>
         <v>180</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="4" t="n">
         <f aca="false">ROUND(P15/C15,0)</f>
         <v>45</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="4" t="n">
         <f aca="false">ROUND(Q15*4/3,0)</f>
         <v>60</v>
       </c>
-      <c r="S15" s="3" t="n">
+      <c r="S15" s="4" t="n">
         <f aca="false">ROUND(Q15*5/3,0)</f>
         <v>75</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="4" t="n">
         <f aca="false">I15/$G$1</f>
-        <v>0.00789473684210526</v>
-      </c>
-      <c r="W15" s="3" t="n">
+        <v>0.00263157894736842</v>
+      </c>
+      <c r="W15" s="4" t="n">
         <f aca="false">3800*V15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <f aca="false">C16</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <f aca="false">C16-J16</f>
         <v>3</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <f aca="false">ROUND(K16/$G$1,5)</f>
         <v>0.00789</v>
       </c>
-      <c r="M16" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N16" s="3" t="n">
+      <c r="M16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <f aca="false">M16*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="4" t="n">
         <f aca="false">ROUND(D16*S15,0)</f>
         <v>75</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <f aca="false">N16+O16</f>
         <v>255</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <f aca="false">ROUND(P16/C16,0)</f>
         <v>85</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="4" t="n">
         <f aca="false">ROUND(Q16*4/3,0)</f>
         <v>113</v>
       </c>
-      <c r="S16" s="3" t="n">
+      <c r="S16" s="4" t="n">
         <f aca="false">ROUND(Q16*5/3,0)</f>
         <v>142</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="4" t="n">
         <f aca="false">I16/$G$1</f>
-        <v>0.00789473684210526</v>
-      </c>
-      <c r="W16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4" t="n">
         <f aca="false">3800*V16</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <f aca="false">C17-D18</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">D18</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="n">
         <f aca="false">C17-J17</f>
         <v>1</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <f aca="false">ROUND(K17/$G$1,5)</f>
         <v>0.00263</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="4" t="n">
         <f aca="false">M17*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3" t="n">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="n">
         <f aca="false">N17+O17</f>
         <v>200</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <f aca="false">ROUND(P17/C17,0)</f>
         <v>100</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="4" t="n">
         <f aca="false">ROUND(Q17*4/3,0)</f>
         <v>133</v>
       </c>
-      <c r="S17" s="3" t="n">
+      <c r="S17" s="4" t="n">
         <f aca="false">ROUND(Q17*5/3,0)</f>
         <v>167</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V17" s="3" t="n">
+      <c r="U17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V17" s="4" t="n">
         <f aca="false">I17/$G$1</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="4" t="n">
         <f aca="false">3800*V17</f>
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <f aca="false">D18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <f aca="false">C18-J18</f>
         <v>2</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <f aca="false">ROUND(K18/$G$1,5)</f>
         <v>0.00526</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" s="4" t="n">
         <f aca="false">M18*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="O18" s="4" t="n">
         <f aca="false">ROUND(D18*S17,0)</f>
         <v>167</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <f aca="false">N18+O18</f>
         <v>367</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <f aca="false">ROUND(P18/C18,0)</f>
         <v>184</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="R18" s="4" t="n">
         <f aca="false">ROUND(Q18*4/3,0)</f>
         <v>245</v>
       </c>
-      <c r="S18" s="3" t="n">
+      <c r="S18" s="4" t="n">
         <f aca="false">ROUND(Q18*5/3,0)</f>
         <v>307</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V18" s="3" t="n">
+      <c r="U18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V18" s="4" t="n">
         <f aca="false">I18/$G$1</f>
-        <v>0.00263157894736842</v>
-      </c>
-      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4" t="n">
         <f aca="false">3800*V18</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">+F20</f>
         <v>0.5</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="0" t="n">
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <f aca="false">C19</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <f aca="false">C19-J19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="4" t="n">
         <f aca="false">ROUND(K19/$G$1,5)</f>
         <v>0.00263</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="4" t="n">
         <f aca="false">M19*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="O19" s="4" t="n">
         <f aca="false">ROUND(D19*S7+F19*S10,0)</f>
         <v>74</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="4" t="n">
         <f aca="false">N19+O19</f>
         <v>274</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="Q19" s="4" t="n">
         <f aca="false">ROUND(P19/C19,0)</f>
         <v>274</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="R19" s="4" t="n">
         <f aca="false">ROUND(Q19*4/3,0)</f>
         <v>365</v>
       </c>
-      <c r="S19" s="3" t="n">
+      <c r="S19" s="4" t="n">
         <f aca="false">ROUND(Q19*5/3,0)</f>
         <v>457</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V19" s="3" t="n">
+      <c r="U19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V19" s="4" t="n">
         <f aca="false">I19/$G$1</f>
-        <v>0.00263157894736842</v>
-      </c>
-      <c r="W19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4" t="n">
         <f aca="false">3800*V19</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <f aca="false">C20</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="n">
         <f aca="false">C20-J20</f>
         <v>1</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="4" t="n">
         <f aca="false">ROUND(K20/$G$1,5)</f>
         <v>0.00263</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="4" t="n">
         <f aca="false">M20*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="4" t="n">
         <f aca="false">ROUND(D20*S6+F20*S10,0)</f>
         <v>74</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="4" t="n">
         <f aca="false">N20+O20</f>
         <v>274</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="4" t="n">
         <f aca="false">ROUND(P20/C20,0)</f>
         <v>274</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="4" t="n">
         <f aca="false">ROUND(Q20*4/3,0)</f>
         <v>365</v>
       </c>
-      <c r="S20" s="3" t="n">
+      <c r="S20" s="4" t="n">
         <f aca="false">ROUND(Q20*5/3,0)</f>
         <v>457</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U20" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V20" s="3" t="n">
+      <c r="U20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" s="4" t="n">
         <f aca="false">I20/$G$1</f>
-        <v>0.00263157894736842</v>
-      </c>
-      <c r="W20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4" t="n">
         <f aca="false">3800*V20</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <f aca="false">C21</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="n">
         <f aca="false">C21-J21</f>
         <v>1</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <f aca="false">ROUND(K21/$G$1,5)</f>
         <v>0.00263</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="4" t="n">
         <f aca="false">M21*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O21" s="4" t="n">
         <f aca="false">ROUND(D21*S14+F21*S9,0)</f>
         <v>182</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="4" t="n">
         <f aca="false">N21+O21</f>
         <v>382</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="4" t="n">
         <f aca="false">ROUND(P21/C21,0)</f>
         <v>382</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="4" t="n">
         <f aca="false">ROUND(Q21*4/3,0)</f>
         <v>509</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="4" t="n">
         <f aca="false">ROUND(Q21*5/3,0)</f>
         <v>637</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U21" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="V21" s="3" t="n">
+      <c r="U21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V21" s="4" t="n">
         <f aca="false">I21/$G$1</f>
-        <v>0.00263157894736842</v>
-      </c>
-      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4" t="n">
         <f aca="false">3800*V21</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">SUM(C3:C21)</f>
         <v>66</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <f aca="false">SUM(D3:D21)</f>
         <v>13.5</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <f aca="false">SUM(F3:F21)</f>
         <v>2.5</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false">SUM(I3:I21)</f>
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM(J3:K22)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="0" t="s">
-        <v>35</v>
+      <c r="H25" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="0" t="s">
-        <v>36</v>
+      <c r="H26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="0" t="s">
-        <v>37</v>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="0" t="s">
-        <v>38</v>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="0" t="s">
-        <v>39</v>
+      <c r="H29" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -1836,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1849,679 +1848,679 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" s="0" t="n">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1" s="1" t="n">
         <f aca="false">C1+H1</f>
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="H2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <f aca="false">C2+H2</f>
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <f aca="false">C3+H3</f>
         <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <f aca="false">C4+H4</f>
         <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <f aca="false">C5+H5</f>
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="H6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <f aca="false">C6+H6</f>
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <f aca="false">C7+H7</f>
         <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <f aca="false">C8+H8</f>
         <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <f aca="false">C9+H9</f>
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <f aca="false">C10+H10</f>
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">C11+H11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="C12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <f aca="false">C11+H11</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="H12" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <f aca="false">C12+H12</f>
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <f aca="false">C13+H13</f>
         <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="I14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="K14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <f aca="false">C14+H14</f>
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <f aca="false">C15+H15</f>
         <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="H16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">C16+H16</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <f aca="false">C16+H16</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="H17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="L17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">C17+H17</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="H18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">C18+H18</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L17" s="0" t="n">
+      <c r="H19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M17" s="0" t="n">
-        <f aca="false">C17+H17</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <f aca="false">C18+H18</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <f aca="false">C19+H19</f>
         <v>9</v>
       </c>
@@ -2529,7 +2528,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/client/game/waren.xlsx
+++ b/client/game/waren.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
   <si>
     <t xml:space="preserve">Je Betrieb</t>
   </si>
@@ -50,7 +50,22 @@
     <t xml:space="preserve">old</t>
   </si>
   <si>
-    <t xml:space="preserve">neu</t>
+    <t xml:space="preserve">gebraucht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doppelte Nachfrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% mehr Arbeiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod1 mehr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
   </si>
   <si>
     <t xml:space="preserve">Lohnsatz</t>
@@ -153,6 +168,12 @@
   </si>
   <si>
     <t xml:space="preserve">Errors.ts:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
   </si>
 </sst>
 </file>
@@ -163,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -199,13 +220,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,6 +292,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,10 +380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,7 +391,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,6 +411,9 @@
         <v>380</v>
       </c>
       <c r="I1" s="2"/>
+      <c r="M1" s="0" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -392,22 +437,22 @@
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -416,13 +461,28 @@
       <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>5</v>
@@ -442,41 +502,52 @@
         <v>0.01316</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <f aca="false">M3/C3</f>
+        <v>20</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">M3*$B$1</f>
+      <c r="T3" s="4" t="n">
+        <f aca="false">S3*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="n">
-        <f aca="false">N3+O3</f>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="n">
+        <f aca="false">T3+U3</f>
         <v>160</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <f aca="false">ROUND(P3/C3,0)</f>
+      <c r="W3" s="4" t="n">
+        <f aca="false">ROUND(V3/C3,0)</f>
         <v>32</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <f aca="false">ROUND(Q3*4/3,0)</f>
+      <c r="X3" s="4" t="n">
+        <f aca="false">ROUND(W3*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <f aca="false">ROUND(Q3*5/3,0)</f>
+      <c r="Y3" s="4" t="n">
+        <f aca="false">ROUND(W3*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="Z3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="AA3" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="AB3" s="4" t="n">
         <f aca="false">I3/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <f aca="false">3800*V3</f>
+      <c r="AC3" s="4" t="n">
+        <f aca="false">3800*AB3</f>
         <v>0</v>
       </c>
     </row>
@@ -485,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>5</v>
@@ -506,41 +577,52 @@
         <v>0.01184</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <f aca="false">M4/C4</f>
+        <v>20</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">M4*$B$1</f>
+      <c r="T4" s="4" t="n">
+        <f aca="false">S4*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="n">
-        <f aca="false">N4+O4</f>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="n">
+        <f aca="false">T4+U4</f>
         <v>160</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <f aca="false">ROUND(P4/C4,0)</f>
+      <c r="W4" s="4" t="n">
+        <f aca="false">ROUND(V4/C4,0)</f>
         <v>32</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <f aca="false">ROUND(Q4*4/3,0)</f>
+      <c r="X4" s="4" t="n">
+        <f aca="false">ROUND(W4*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <f aca="false">ROUND(Q4*5/3,0)</f>
+      <c r="Y4" s="4" t="n">
+        <f aca="false">ROUND(W4*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="AB4" s="4" t="n">
         <f aca="false">I4/$G$1</f>
         <v>0.00131578947368421</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <f aca="false">3800*V4</f>
+      <c r="AC4" s="4" t="n">
+        <f aca="false">3800*AB4</f>
         <v>5</v>
       </c>
     </row>
@@ -549,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>7</v>
@@ -570,41 +652,52 @@
         <v>0.00789</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <f aca="false">M5/C5</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">M5*$B$1</f>
+      <c r="T5" s="4" t="n">
+        <f aca="false">S5*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="n">
-        <f aca="false">N5+O5</f>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="n">
+        <f aca="false">T5+U5</f>
         <v>160</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <f aca="false">ROUND(P5/C5,0)</f>
+      <c r="W5" s="4" t="n">
+        <f aca="false">ROUND(V5/C5,0)</f>
         <v>23</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <f aca="false">ROUND(Q5*4/3,0)</f>
+      <c r="X5" s="4" t="n">
+        <f aca="false">ROUND(W5*4/3,0)</f>
         <v>31</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <f aca="false">ROUND(Q5*5/3,0)</f>
+      <c r="Y5" s="4" t="n">
+        <f aca="false">ROUND(W5*5/3,0)</f>
         <v>38</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="AB5" s="4" t="n">
         <f aca="false">I5/$G$1</f>
         <v>0.00789473684210526</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <f aca="false">3800*V5</f>
+      <c r="AC5" s="4" t="n">
+        <f aca="false">3800*AB5</f>
         <v>30</v>
       </c>
     </row>
@@ -613,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
@@ -634,41 +727,52 @@
         <v>0.01053</v>
       </c>
       <c r="M6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <f aca="false">M6/C6</f>
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">M6*$B$1</f>
+      <c r="T6" s="4" t="n">
+        <f aca="false">S6*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="n">
-        <f aca="false">N6+O6</f>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="n">
+        <f aca="false">T6+U6</f>
         <v>160</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <f aca="false">ROUND(P6/C6,0)</f>
+      <c r="W6" s="4" t="n">
+        <f aca="false">ROUND(V6/C6,0)</f>
         <v>32</v>
       </c>
-      <c r="R6" s="4" t="n">
-        <f aca="false">ROUND(Q6*4/3,0)</f>
+      <c r="X6" s="4" t="n">
+        <f aca="false">ROUND(W6*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <f aca="false">ROUND(Q6*5/3,0)</f>
+      <c r="Y6" s="4" t="n">
+        <f aca="false">ROUND(W6*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="AB6" s="4" t="n">
         <f aca="false">I6/$G$1</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="W6" s="4" t="n">
-        <f aca="false">3800*V6</f>
+      <c r="AC6" s="4" t="n">
+        <f aca="false">3800*AB6</f>
         <v>20</v>
       </c>
     </row>
@@ -677,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
@@ -698,41 +802,52 @@
         <v>0.00658</v>
       </c>
       <c r="M7" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <f aca="false">M7/C7</f>
+        <v>20</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">M7*$B$1</f>
+      <c r="T7" s="4" t="n">
+        <f aca="false">S7*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="n">
-        <f aca="false">N7+O7</f>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="n">
+        <f aca="false">T7+U7</f>
         <v>160</v>
       </c>
-      <c r="Q7" s="4" t="n">
-        <f aca="false">ROUND(P7/C7,0)</f>
+      <c r="W7" s="4" t="n">
+        <f aca="false">ROUND(V7/C7,0)</f>
         <v>32</v>
       </c>
-      <c r="R7" s="4" t="n">
-        <f aca="false">ROUND(Q7*4/3,0)</f>
+      <c r="X7" s="4" t="n">
+        <f aca="false">ROUND(W7*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <f aca="false">ROUND(Q7*5/3,0)</f>
+      <c r="Y7" s="4" t="n">
+        <f aca="false">ROUND(W7*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="AB7" s="4" t="n">
         <f aca="false">I7/$G$1</f>
         <v>0.00657894736842105</v>
       </c>
-      <c r="W7" s="4" t="n">
-        <f aca="false">3800*V7</f>
+      <c r="AC7" s="4" t="n">
+        <f aca="false">3800*AB7</f>
         <v>25</v>
       </c>
     </row>
@@ -741,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -762,41 +877,52 @@
         <v>0.00526</v>
       </c>
       <c r="M8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <f aca="false">M8/C8</f>
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">M8*$B$1</f>
+      <c r="T8" s="4" t="n">
+        <f aca="false">S8*$B$1</f>
         <v>160</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="n">
-        <f aca="false">N8+O8</f>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
+        <f aca="false">T8+U8</f>
         <v>160</v>
       </c>
-      <c r="Q8" s="4" t="n">
-        <f aca="false">ROUND(P8/C8,0)</f>
+      <c r="W8" s="4" t="n">
+        <f aca="false">ROUND(V8/C8,0)</f>
         <v>32</v>
       </c>
-      <c r="R8" s="4" t="n">
-        <f aca="false">ROUND(Q8*4/3,0)</f>
+      <c r="X8" s="4" t="n">
+        <f aca="false">ROUND(W8*4/3,0)</f>
         <v>43</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <f aca="false">ROUND(Q8*5/3,0)</f>
+      <c r="Y8" s="4" t="n">
+        <f aca="false">ROUND(W8*5/3,0)</f>
         <v>53</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V8" s="4" t="n">
+      <c r="AA8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <f aca="false">I8/$G$1</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="W8" s="4" t="n">
-        <f aca="false">3800*V8</f>
+      <c r="AC8" s="4" t="n">
+        <f aca="false">3800*AB8</f>
         <v>20</v>
       </c>
     </row>
@@ -805,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>6</v>
@@ -814,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
@@ -835,44 +961,58 @@
         <v>0.01316</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N9" s="4" t="n">
-        <f aca="false">M9*$B$1</f>
+        <f aca="false">M9/C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <f aca="false">N9*3/7</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <f aca="false">S9*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O9" s="4" t="n">
-        <f aca="false">ROUND(D9*S5,0)</f>
+      <c r="U9" s="4" t="n">
+        <f aca="false">ROUND(D9*Y5,0)</f>
         <v>114</v>
       </c>
-      <c r="P9" s="4" t="n">
-        <f aca="false">N9+O9</f>
+      <c r="V9" s="4" t="n">
+        <f aca="false">T9+U9</f>
         <v>294</v>
       </c>
-      <c r="Q9" s="4" t="n">
-        <f aca="false">ROUND(P9/C9,0)</f>
+      <c r="W9" s="4" t="n">
+        <f aca="false">ROUND(V9/C9,0)</f>
         <v>49</v>
       </c>
-      <c r="R9" s="4" t="n">
-        <f aca="false">ROUND(Q9*4/3,0)</f>
+      <c r="X9" s="4" t="n">
+        <f aca="false">ROUND(W9*4/3,0)</f>
         <v>65</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <f aca="false">ROUND(Q9*5/3,0)</f>
+      <c r="Y9" s="4" t="n">
+        <f aca="false">ROUND(W9*5/3,0)</f>
         <v>82</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="AB9" s="4" t="n">
         <f aca="false">I9/$G$1</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="W9" s="4" t="n">
-        <f aca="false">3800*V9</f>
+      <c r="AC9" s="4" t="n">
+        <f aca="false">3800*AB9</f>
         <v>10</v>
       </c>
     </row>
@@ -881,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>6</v>
@@ -890,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -911,44 +1051,58 @@
         <v>0.01316</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N10" s="4" t="n">
-        <f aca="false">M10*$B$1</f>
+        <f aca="false">M10/C10</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <f aca="false">N10*3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <f aca="false">S10*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O10" s="4" t="n">
-        <f aca="false">D10*S8</f>
+      <c r="U10" s="4" t="n">
+        <f aca="false">D10*Y8</f>
         <v>159</v>
       </c>
-      <c r="P10" s="4" t="n">
-        <f aca="false">N10+O10</f>
+      <c r="V10" s="4" t="n">
+        <f aca="false">T10+U10</f>
         <v>339</v>
       </c>
-      <c r="Q10" s="4" t="n">
-        <f aca="false">ROUND(P10/C10,0)</f>
+      <c r="W10" s="4" t="n">
+        <f aca="false">ROUND(V10/C10,0)</f>
         <v>57</v>
       </c>
-      <c r="R10" s="4" t="n">
-        <f aca="false">ROUND(Q10*4/3,0)</f>
+      <c r="X10" s="4" t="n">
+        <f aca="false">ROUND(W10*4/3,0)</f>
         <v>76</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <f aca="false">ROUND(Q10*5/3,0)</f>
+      <c r="Y10" s="4" t="n">
+        <f aca="false">ROUND(W10*5/3,0)</f>
         <v>95</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="V10" s="4" t="n">
+      <c r="AB10" s="4" t="n">
         <f aca="false">I10/$G$1</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="W10" s="4" t="n">
-        <f aca="false">3800*V10</f>
+      <c r="AC10" s="4" t="n">
+        <f aca="false">3800*AB10</f>
         <v>10</v>
       </c>
     </row>
@@ -957,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>2</v>
@@ -966,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
@@ -986,44 +1140,58 @@
         <v>0.00526</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N11" s="4" t="n">
-        <f aca="false">M11*$B$1</f>
+        <f aca="false">M11/C11</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <f aca="false">N11*1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <f aca="false">S11*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O11" s="4" t="n">
-        <f aca="false">ROUND(D11*S5,0)</f>
+      <c r="U11" s="4" t="n">
+        <f aca="false">ROUND(D11*Y5,0)</f>
         <v>38</v>
       </c>
-      <c r="P11" s="4" t="n">
-        <f aca="false">N11+O11</f>
+      <c r="V11" s="4" t="n">
+        <f aca="false">T11+U11</f>
         <v>218</v>
       </c>
-      <c r="Q11" s="4" t="n">
-        <f aca="false">ROUND(P11/C11,0)</f>
+      <c r="W11" s="4" t="n">
+        <f aca="false">ROUND(V11/C11,0)</f>
         <v>109</v>
       </c>
-      <c r="R11" s="4" t="n">
-        <f aca="false">ROUND(Q11*4/3,0)</f>
+      <c r="X11" s="4" t="n">
+        <f aca="false">ROUND(W11*4/3,0)</f>
         <v>145</v>
       </c>
-      <c r="S11" s="4" t="n">
-        <f aca="false">ROUND(Q11*5/3,0)</f>
+      <c r="Y11" s="4" t="n">
+        <f aca="false">ROUND(W11*5/3,0)</f>
         <v>182</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="AB11" s="4" t="n">
         <f aca="false">I11/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W11" s="4" t="n">
-        <f aca="false">3800*V11</f>
+      <c r="AC11" s="4" t="n">
+        <f aca="false">3800*AB11</f>
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>2</v>
@@ -1041,13 +1209,13 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>2</v>
@@ -1067,44 +1235,61 @@
         <v>0.00526</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N12" s="4" t="n">
-        <f aca="false">M12*$B$1</f>
+        <f aca="false">M12/C12</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <f aca="false">N12*0.5/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <f aca="false">N12*0.5/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <f aca="false">S12*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O12" s="4" t="n">
-        <f aca="false">ROUND(D12*S4+F12*S6,0)</f>
+      <c r="U12" s="4" t="n">
+        <f aca="false">ROUND(D12*Y4+F12*Y6,0)</f>
         <v>53</v>
       </c>
-      <c r="P12" s="4" t="n">
-        <f aca="false">N12+O12</f>
+      <c r="V12" s="4" t="n">
+        <f aca="false">T12+U12</f>
         <v>233</v>
       </c>
-      <c r="Q12" s="4" t="n">
-        <f aca="false">ROUND(P12/C12,0)</f>
+      <c r="W12" s="4" t="n">
+        <f aca="false">ROUND(V12/C12,0)</f>
         <v>117</v>
       </c>
-      <c r="R12" s="4" t="n">
-        <f aca="false">ROUND(Q12*4/3,0)</f>
+      <c r="X12" s="4" t="n">
+        <f aca="false">ROUND(W12*4/3,0)</f>
         <v>156</v>
       </c>
-      <c r="S12" s="4" t="n">
-        <f aca="false">ROUND(Q12*5/3,0)</f>
+      <c r="Y12" s="4" t="n">
+        <f aca="false">ROUND(W12*5/3,0)</f>
         <v>195</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="AB12" s="4" t="n">
         <f aca="false">I12/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W12" s="4" t="n">
-        <f aca="false">3800*V12</f>
+      <c r="AC12" s="4" t="n">
+        <f aca="false">3800*AB12</f>
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
@@ -1122,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -1142,44 +1327,58 @@
         <v>0.00263</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4" t="n">
-        <f aca="false">M13*$B$1</f>
+        <f aca="false">M13/C13</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">N13*2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <f aca="false">S13*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O13" s="4" t="n">
-        <f aca="false">ROUND(D13*S7,0)</f>
+      <c r="U13" s="4" t="n">
+        <f aca="false">ROUND(D13*Y7,0)</f>
         <v>106</v>
       </c>
-      <c r="P13" s="4" t="n">
-        <f aca="false">N13+O13</f>
+      <c r="V13" s="4" t="n">
+        <f aca="false">T13+U13</f>
         <v>286</v>
       </c>
-      <c r="Q13" s="4" t="n">
-        <f aca="false">ROUND(P13/C13,0)</f>
+      <c r="W13" s="4" t="n">
+        <f aca="false">ROUND(V13/C13,0)</f>
         <v>286</v>
       </c>
-      <c r="R13" s="4" t="n">
-        <f aca="false">ROUND(Q13*4/3,0)</f>
+      <c r="X13" s="4" t="n">
+        <f aca="false">ROUND(W13*4/3,0)</f>
         <v>381</v>
       </c>
-      <c r="S13" s="4" t="n">
-        <f aca="false">ROUND(Q13*5/3,0)</f>
+      <c r="Y13" s="4" t="n">
+        <f aca="false">ROUND(W13*5/3,0)</f>
         <v>477</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V13" s="4" t="n">
+      <c r="AA13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="4" t="n">
         <f aca="false">I13/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W13" s="4" t="n">
-        <f aca="false">3800*V13</f>
+      <c r="AC13" s="4" t="n">
+        <f aca="false">3800*AB13</f>
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>3</v>
@@ -1211,41 +1410,52 @@
         <v>0.00526</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="N14" s="4" t="n">
-        <f aca="false">M14*$B$1</f>
+        <f aca="false">M14/C14</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <f aca="false">S14*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="n">
-        <f aca="false">N14+O14</f>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4" t="n">
+        <f aca="false">T14+U14</f>
         <v>180</v>
       </c>
-      <c r="Q14" s="4" t="n">
-        <f aca="false">ROUND(P14/C14,0)</f>
+      <c r="W14" s="4" t="n">
+        <f aca="false">ROUND(V14/C14,0)</f>
         <v>60</v>
       </c>
-      <c r="R14" s="4" t="n">
-        <f aca="false">ROUND(Q14*4/3,0)</f>
+      <c r="X14" s="4" t="n">
+        <f aca="false">ROUND(W14*4/3,0)</f>
         <v>80</v>
       </c>
-      <c r="S14" s="4" t="n">
-        <f aca="false">ROUND(Q14*5/3,0)</f>
+      <c r="Y14" s="4" t="n">
+        <f aca="false">ROUND(W14*5/3,0)</f>
         <v>100</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="AB14" s="4" t="n">
         <f aca="false">I14/$G$1</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="W14" s="4" t="n">
-        <f aca="false">3800*V14</f>
+      <c r="AC14" s="4" t="n">
+        <f aca="false">3800*AB14</f>
         <v>10</v>
       </c>
     </row>
@@ -1254,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>4</v>
@@ -1275,41 +1485,52 @@
         <v>0.00789</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="N15" s="4" t="n">
-        <f aca="false">M15*$B$1</f>
+        <f aca="false">M15/C15</f>
+        <v>25</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <f aca="false">S15*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4" t="n">
-        <f aca="false">N15+O15</f>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="n">
+        <f aca="false">T15+U15</f>
         <v>180</v>
       </c>
-      <c r="Q15" s="4" t="n">
-        <f aca="false">ROUND(P15/C15,0)</f>
+      <c r="W15" s="4" t="n">
+        <f aca="false">ROUND(V15/C15,0)</f>
         <v>45</v>
       </c>
-      <c r="R15" s="4" t="n">
-        <f aca="false">ROUND(Q15*4/3,0)</f>
+      <c r="X15" s="4" t="n">
+        <f aca="false">ROUND(W15*4/3,0)</f>
         <v>60</v>
       </c>
-      <c r="S15" s="4" t="n">
-        <f aca="false">ROUND(Q15*5/3,0)</f>
+      <c r="Y15" s="4" t="n">
+        <f aca="false">ROUND(W15*5/3,0)</f>
         <v>75</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="AB15" s="4" t="n">
         <f aca="false">I15/$G$1</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="W15" s="4" t="n">
-        <f aca="false">3800*V15</f>
+      <c r="AC15" s="4" t="n">
+        <f aca="false">3800*AB15</f>
         <v>10</v>
       </c>
     </row>
@@ -1318,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>3</v>
@@ -1327,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>1</v>
@@ -1347,44 +1568,57 @@
         <v>0.00789</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="N16" s="4" t="n">
-        <f aca="false">M16*$B$1</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <f aca="false">N16*1/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <f aca="false">S16*$B$1</f>
         <v>180</v>
       </c>
-      <c r="O16" s="4" t="n">
-        <f aca="false">ROUND(D16*S15,0)</f>
+      <c r="U16" s="4" t="n">
+        <f aca="false">ROUND(D16*Y15,0)</f>
         <v>75</v>
       </c>
-      <c r="P16" s="4" t="n">
-        <f aca="false">N16+O16</f>
+      <c r="V16" s="4" t="n">
+        <f aca="false">T16+U16</f>
         <v>255</v>
       </c>
-      <c r="Q16" s="4" t="n">
-        <f aca="false">ROUND(P16/C16,0)</f>
+      <c r="W16" s="4" t="n">
+        <f aca="false">ROUND(V16/C16,0)</f>
         <v>85</v>
       </c>
-      <c r="R16" s="4" t="n">
-        <f aca="false">ROUND(Q16*4/3,0)</f>
+      <c r="X16" s="4" t="n">
+        <f aca="false">ROUND(W16*4/3,0)</f>
         <v>113</v>
       </c>
-      <c r="S16" s="4" t="n">
-        <f aca="false">ROUND(Q16*5/3,0)</f>
+      <c r="Y16" s="4" t="n">
+        <f aca="false">ROUND(W16*5/3,0)</f>
         <v>142</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="AB16" s="4" t="n">
         <f aca="false">I16/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W16" s="4" t="n">
-        <f aca="false">3800*V16</f>
+      <c r="AC16" s="4" t="n">
+        <f aca="false">3800*AB16</f>
         <v>0</v>
       </c>
     </row>
@@ -1393,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>2</v>
@@ -1414,41 +1648,52 @@
         <v>0.00263</v>
       </c>
       <c r="M17" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <f aca="false">M17/C17</f>
+        <v>50</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N17" s="4" t="n">
-        <f aca="false">M17*$B$1</f>
+      <c r="T17" s="4" t="n">
+        <f aca="false">S17*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4" t="n">
-        <f aca="false">N17+O17</f>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="n">
+        <f aca="false">T17+U17</f>
         <v>200</v>
       </c>
-      <c r="Q17" s="4" t="n">
-        <f aca="false">ROUND(P17/C17,0)</f>
+      <c r="W17" s="4" t="n">
+        <f aca="false">ROUND(V17/C17,0)</f>
         <v>100</v>
       </c>
-      <c r="R17" s="4" t="n">
-        <f aca="false">ROUND(Q17*4/3,0)</f>
+      <c r="X17" s="4" t="n">
+        <f aca="false">ROUND(W17*4/3,0)</f>
         <v>133</v>
       </c>
-      <c r="S17" s="4" t="n">
-        <f aca="false">ROUND(Q17*5/3,0)</f>
+      <c r="Y17" s="4" t="n">
+        <f aca="false">ROUND(W17*5/3,0)</f>
         <v>167</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U17" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V17" s="4" t="n">
+      <c r="AA17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="4" t="n">
         <f aca="false">I17/$G$1</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="W17" s="4" t="n">
-        <f aca="false">3800*V17</f>
+      <c r="AC17" s="4" t="n">
+        <f aca="false">3800*AB17</f>
         <v>10</v>
       </c>
     </row>
@@ -1457,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>2</v>
@@ -1466,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
@@ -1486,44 +1731,58 @@
         <v>0.00526</v>
       </c>
       <c r="M18" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <f aca="false">M18/C18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <f aca="false">N18*1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N18" s="4" t="n">
-        <f aca="false">M18*$B$1</f>
+      <c r="T18" s="4" t="n">
+        <f aca="false">S18*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O18" s="4" t="n">
-        <f aca="false">ROUND(D18*S17,0)</f>
+      <c r="U18" s="4" t="n">
+        <f aca="false">ROUND(D18*Y17,0)</f>
         <v>167</v>
       </c>
-      <c r="P18" s="4" t="n">
-        <f aca="false">N18+O18</f>
+      <c r="V18" s="4" t="n">
+        <f aca="false">T18+U18</f>
         <v>367</v>
       </c>
-      <c r="Q18" s="4" t="n">
-        <f aca="false">ROUND(P18/C18,0)</f>
+      <c r="W18" s="4" t="n">
+        <f aca="false">ROUND(V18/C18,0)</f>
         <v>184</v>
       </c>
-      <c r="R18" s="4" t="n">
-        <f aca="false">ROUND(Q18*4/3,0)</f>
+      <c r="X18" s="4" t="n">
+        <f aca="false">ROUND(W18*4/3,0)</f>
         <v>245</v>
       </c>
-      <c r="S18" s="4" t="n">
-        <f aca="false">ROUND(Q18*5/3,0)</f>
+      <c r="Y18" s="4" t="n">
+        <f aca="false">ROUND(W18*5/3,0)</f>
         <v>307</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U18" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V18" s="4" t="n">
+      <c r="AA18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="4" t="n">
         <f aca="false">I18/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W18" s="4" t="n">
-        <f aca="false">3800*V18</f>
+      <c r="AC18" s="4" t="n">
+        <f aca="false">3800*AB18</f>
         <v>0</v>
       </c>
     </row>
@@ -1532,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>1</v>
@@ -1541,14 +1800,14 @@
         <v>0.5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">+F20</f>
         <v>0.5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>3</v>
@@ -1571,41 +1830,61 @@
         <v>10</v>
       </c>
       <c r="N19" s="4" t="n">
-        <f aca="false">M19*$B$1</f>
+        <f aca="false">M19/C19</f>
+        <v>10</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <f aca="false">N19*0.5/5</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <f aca="false">N19*0.5/6</f>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <f aca="false">P19*3/6</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <f aca="false">S19*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O19" s="4" t="n">
-        <f aca="false">ROUND(D19*S7+F19*S10,0)</f>
+      <c r="U19" s="4" t="n">
+        <f aca="false">ROUND(D19*Y7+F19*Y10,0)</f>
         <v>74</v>
       </c>
-      <c r="P19" s="4" t="n">
-        <f aca="false">N19+O19</f>
+      <c r="V19" s="4" t="n">
+        <f aca="false">T19+U19</f>
         <v>274</v>
       </c>
-      <c r="Q19" s="4" t="n">
-        <f aca="false">ROUND(P19/C19,0)</f>
+      <c r="W19" s="4" t="n">
+        <f aca="false">ROUND(V19/C19,0)</f>
         <v>274</v>
       </c>
-      <c r="R19" s="4" t="n">
-        <f aca="false">ROUND(Q19*4/3,0)</f>
+      <c r="X19" s="4" t="n">
+        <f aca="false">ROUND(W19*4/3,0)</f>
         <v>365</v>
       </c>
-      <c r="S19" s="4" t="n">
-        <f aca="false">ROUND(Q19*5/3,0)</f>
+      <c r="Y19" s="4" t="n">
+        <f aca="false">ROUND(W19*5/3,0)</f>
         <v>457</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U19" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V19" s="4" t="n">
+      <c r="AA19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="4" t="n">
         <f aca="false">I19/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W19" s="4" t="n">
-        <f aca="false">3800*V19</f>
+      <c r="AC19" s="4" t="n">
+        <f aca="false">3800*AB19</f>
         <v>0</v>
       </c>
     </row>
@@ -1614,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>1</v>
@@ -1623,13 +1902,13 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>3</v>
@@ -1652,41 +1931,61 @@
         <v>10</v>
       </c>
       <c r="N20" s="4" t="n">
-        <f aca="false">M20*$B$1</f>
+        <f aca="false">M20/C20</f>
+        <v>10</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <f aca="false">N20*0.5/5</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <f aca="false">N20*0.5/6</f>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <f aca="false">P20*3/6</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <f aca="false">S20*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O20" s="4" t="n">
-        <f aca="false">ROUND(D20*S6+F20*S10,0)</f>
+      <c r="U20" s="4" t="n">
+        <f aca="false">ROUND(D20*Y6+F20*Y10,0)</f>
         <v>74</v>
       </c>
-      <c r="P20" s="4" t="n">
-        <f aca="false">N20+O20</f>
+      <c r="V20" s="4" t="n">
+        <f aca="false">T20+U20</f>
         <v>274</v>
       </c>
-      <c r="Q20" s="4" t="n">
-        <f aca="false">ROUND(P20/C20,0)</f>
+      <c r="W20" s="4" t="n">
+        <f aca="false">ROUND(V20/C20,0)</f>
         <v>274</v>
       </c>
-      <c r="R20" s="4" t="n">
-        <f aca="false">ROUND(Q20*4/3,0)</f>
+      <c r="X20" s="4" t="n">
+        <f aca="false">ROUND(W20*4/3,0)</f>
         <v>365</v>
       </c>
-      <c r="S20" s="4" t="n">
-        <f aca="false">ROUND(Q20*5/3,0)</f>
+      <c r="Y20" s="4" t="n">
+        <f aca="false">ROUND(W20*5/3,0)</f>
         <v>457</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U20" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V20" s="4" t="n">
+      <c r="AA20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="4" t="n">
         <f aca="false">I20/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W20" s="4" t="n">
-        <f aca="false">3800*V20</f>
+      <c r="AC20" s="4" t="n">
+        <f aca="false">3800*AB20</f>
         <v>0</v>
       </c>
     </row>
@@ -1695,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>1</v>
@@ -1704,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>3</v>
@@ -1730,51 +2029,80 @@
         <v>0.00263</v>
       </c>
       <c r="M21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <f aca="false">M21/C21</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <f aca="false">N21*1/3</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <f aca="false">N21*1/6</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <f aca="false">P21*3/7</f>
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N21" s="4" t="n">
-        <f aca="false">M21*$B$1</f>
+      <c r="T21" s="4" t="n">
+        <f aca="false">S21*$B$1</f>
         <v>200</v>
       </c>
-      <c r="O21" s="4" t="n">
-        <f aca="false">ROUND(D21*S14+F21*S9,0)</f>
+      <c r="U21" s="4" t="n">
+        <f aca="false">ROUND(D21*Y14+F21*Y9,0)</f>
         <v>182</v>
       </c>
-      <c r="P21" s="4" t="n">
-        <f aca="false">N21+O21</f>
+      <c r="V21" s="4" t="n">
+        <f aca="false">T21+U21</f>
         <v>382</v>
       </c>
-      <c r="Q21" s="4" t="n">
-        <f aca="false">ROUND(P21/C21,0)</f>
+      <c r="W21" s="4" t="n">
+        <f aca="false">ROUND(V21/C21,0)</f>
         <v>382</v>
       </c>
-      <c r="R21" s="4" t="n">
-        <f aca="false">ROUND(Q21*4/3,0)</f>
+      <c r="X21" s="4" t="n">
+        <f aca="false">ROUND(W21*4/3,0)</f>
         <v>509</v>
       </c>
-      <c r="S21" s="4" t="n">
-        <f aca="false">ROUND(Q21*5/3,0)</f>
+      <c r="Y21" s="4" t="n">
+        <f aca="false">ROUND(W21*5/3,0)</f>
         <v>637</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U21" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="V21" s="4" t="n">
+      <c r="AA21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="4" t="n">
         <f aca="false">I21/$G$1</f>
         <v>0</v>
       </c>
-      <c r="W21" s="4" t="n">
-        <f aca="false">3800*V21</f>
+      <c r="AC21" s="4" t="n">
+        <f aca="false">3800*AB21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="n">
+        <f aca="false">SUM(L3:L21)</f>
+        <v>0.13155</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="n">
@@ -1793,34 +2121,42 @@
         <f aca="false">SUM(I3:I21)</f>
         <v>15</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false">SUM(J3:K22)</f>
         <v>66</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">L21*19</f>
+        <v>0.04997</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">1/20</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1839,10 +2175,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1852,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>0</v>
@@ -1882,25 +2218,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
@@ -1918,25 +2254,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2</v>
@@ -1954,25 +2290,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
@@ -1990,25 +2326,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>4</v>
@@ -2026,25 +2362,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>5</v>
@@ -2062,25 +2398,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>6</v>
@@ -2098,25 +2434,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>7</v>
@@ -2134,25 +2470,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>8</v>
@@ -2170,25 +2506,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>9</v>
@@ -2206,25 +2542,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>10</v>
@@ -2242,25 +2578,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>11</v>
@@ -2278,25 +2614,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>29</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>12</v>
@@ -2314,25 +2650,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>13</v>
@@ -2350,25 +2686,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>14</v>
@@ -2386,25 +2722,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>15</v>
@@ -2422,25 +2758,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>16</v>
@@ -2458,25 +2794,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>17</v>
@@ -2494,25 +2830,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>18</v>
@@ -2523,6 +2859,66 @@
       <c r="M19" s="1" t="n">
         <f aca="false">C19+H19</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">A22*(1+B22*C22+B22*D22)</f>
+        <v>2600</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">I25*(1+J23)</f>
+        <v>150</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">(J25-I25)/I25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">I26-I26*J23</f>
+        <v>50</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">(J26-I26)/I26</f>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
